--- a/hardware/KiCAD/esp32-energymeter-V2/production/mouser-bom-esp32-energymeter-V2.xlsx
+++ b/hardware/KiCAD/esp32-energymeter-V2/production/mouser-bom-esp32-energymeter-V2.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Saad Imtiaz\Documents\GitHub\esp32-energymeter\hardware\KiCAD\esp32-energymeter-V2\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{24FA5695-4672-463E-9DD9-E6FD89F840D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB4E206-8626-4915-AC5E-A615D6868E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE6C120F-DC36-4EB6-B3D7-DB831F3C207A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE6C120F-DC36-4EB6-B3D7-DB831F3C207A}"/>
   </bookViews>
   <sheets>
     <sheet name="mouser-bom-esp32-energymeter-V2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="141">
   <si>
     <t>Date:</t>
   </si>
@@ -67,9 +80,6 @@
     <t>Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
   <si>
-    <t>Unpolarized capacitor, small symbol</t>
-  </si>
-  <si>
     <t>C13</t>
   </si>
   <si>
@@ -184,9 +194,6 @@
     <t>Automotive Surface Mount 400 W TVS Diode in SOD-123FL</t>
   </si>
   <si>
-    <t>D6</t>
-  </si>
-  <si>
     <t>621-B140HW-7</t>
   </si>
   <si>
@@ -250,9 +257,6 @@
     <t>TerminalBlock_RND:TerminalBlock_RND_205-00236_1x06_P5.08mm_Horizontal</t>
   </si>
   <si>
-    <t>Generic screw terminal, single row, 01x06, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t>K2</t>
   </si>
   <si>
@@ -331,9 +335,6 @@
     <t>Resistor_SMD:R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
   </si>
   <si>
-    <t>Resistor, US symbol</t>
-  </si>
-  <si>
     <t>R2, R3, R6, R7, R10, R11</t>
   </si>
   <si>
@@ -355,9 +356,6 @@
     <t>100k</t>
   </si>
   <si>
-    <t>R30, R31</t>
-  </si>
-  <si>
     <t>755-SDR10EZPJ472</t>
   </si>
   <si>
@@ -443,13 +441,28 @@
   </si>
   <si>
     <t>R39</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>Unpolarized capacitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terminal block, screw type, 5.08 , horizontal, 6 poles, CUI Blue</t>
+  </si>
+  <si>
+    <t>R31, R32</t>
+  </si>
+  <si>
+    <t>D6,D7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +580,21 @@
       <name val="Inter"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -749,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -864,6 +892,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -909,15 +952,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1294,833 +1354,914 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DEEC5C-D6BA-419B-A6ED-838B9C484E91}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A5:A32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.09765625" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.09765625" customWidth="1"/>
-    <col min="6" max="6" width="22.69921875" customWidth="1"/>
-    <col min="7" max="7" width="27.796875" customWidth="1"/>
+    <col min="1" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.296875" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.09765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.796875" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="30.19921875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="32.296875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="E1" s="3">
         <v>45352.696527777778</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F4" s="10">
+        <f>G4*5</f>
+        <v>75</v>
+      </c>
+      <c r="G4" s="8">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D5">
-        <f>E5*5</f>
+      <c r="I4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" ref="F5:F31" si="0">G5*5</f>
+        <v>60</v>
+      </c>
+      <c r="G5" s="8">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E5">
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G19" s="8">
+        <v>4</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G21" s="8">
+        <v>12</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G22" s="8">
+        <v>6</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G23" s="8">
+        <v>6</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G24" s="8">
+        <v>4</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G26" s="8">
+        <v>8</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D32" si="0">E6*5</f>
-        <v>60</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
+      <c r="G30" s="8">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="G31" s="8">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E22">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E27">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="H31" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="I31" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G31" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" t="s">
-        <v>135</v>
-      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>